--- a/20230306-174629-exportDt.xlsx
+++ b/20230306-174629-exportDt.xlsx
@@ -1663,8 +1663,8 @@
   </sheetPr>
   <dimension ref="A1:J463"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C22" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C46" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2208,7 +2208,7 @@
       <c r="J36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="30" t="s">
         <v>127</v>
       </c>
       <c r="E37" s="29" t="s">
@@ -2221,7 +2221,7 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="30" t="s">
         <v>129</v>
       </c>
       <c r="E38" s="29" t="s">
@@ -2247,7 +2247,7 @@
       <c r="J39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="30" t="s">
         <v>133</v>
       </c>
       <c r="E40" s="29" t="s">
@@ -2260,7 +2260,7 @@
       <c r="J40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="30" t="s">
         <v>135</v>
       </c>
       <c r="E41" s="29" t="s">
@@ -2273,7 +2273,7 @@
       <c r="J41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="30" t="s">
         <v>137</v>
       </c>
       <c r="E42" s="29" t="s">
@@ -2286,7 +2286,7 @@
       <c r="J42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="30" t="s">
         <v>139</v>
       </c>
       <c r="E43" s="29" t="s">
@@ -2361,7 +2361,7 @@
       <c r="J48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="30" t="s">
         <v>150</v>
       </c>
       <c r="E49" s="29" t="s">

--- a/20230306-174629-exportDt.xlsx
+++ b/20230306-174629-exportDt.xlsx
@@ -1155,7 +1155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1321,7 +1321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1414,7 +1414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1573,7 +1573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1657,14 +1657,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J463"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C46" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1990,7 +1990,7 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="30" t="s">
         <v>94</v>
       </c>
       <c r="E20" s="29" t="s">
@@ -2159,7 +2159,7 @@
       <c r="J32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="30" t="s">
         <v>120</v>
       </c>
       <c r="E33" s="29" t="s">
@@ -2172,7 +2172,7 @@
       <c r="J33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="30" t="s">
         <v>122</v>
       </c>
       <c r="E34" s="29" t="s">
@@ -7540,7 +7540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -7679,7 +7679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -7689,7 +7689,7 @@
       <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.28"/>

--- a/20230306-174629-exportDt.xlsx
+++ b/20230306-174629-exportDt.xlsx
@@ -1664,7 +1664,7 @@
   <dimension ref="A1:J463"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2003,7 +2003,7 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="30" t="s">
         <v>96</v>
       </c>
       <c r="E21" s="29" t="s">
@@ -2016,7 +2016,7 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="30" t="s">
         <v>98</v>
       </c>
       <c r="E22" s="29" t="s">
@@ -7689,7 +7689,7 @@
       <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.28"/>

--- a/20230306-174629-exportDt.xlsx
+++ b/20230306-174629-exportDt.xlsx
@@ -1663,8 +1663,8 @@
   </sheetPr>
   <dimension ref="A1:J463"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C28" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2042,7 +2042,7 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="30" t="s">
         <v>102</v>
       </c>
       <c r="E24" s="29" t="s">
@@ -2384,7 +2384,7 @@
       <c r="J50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="30" t="s">
         <v>153</v>
       </c>
       <c r="E51" s="29" t="s">
@@ -2516,7 +2516,7 @@
       <c r="J62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D63" s="28" t="s">
+      <c r="D63" s="30" t="s">
         <v>169</v>
       </c>
       <c r="E63" s="29" t="s">

--- a/20230306-174629-exportDt.xlsx
+++ b/20230306-174629-exportDt.xlsx
@@ -807,7 +807,7 @@
       <charset val="163"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,6 +830,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFC00000"/>
       </patternFill>
     </fill>
     <fill>
@@ -904,7 +910,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1029,6 +1035,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1037,7 +1047,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1663,8 +1673,8 @@
   </sheetPr>
   <dimension ref="A1:J463"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C28" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2068,7 +2078,7 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="31" t="s">
         <v>106</v>
       </c>
       <c r="E26" s="29" t="s">
@@ -2106,7 +2116,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="95.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D29" s="28" t="s">
         <v>112</v>
       </c>
@@ -2322,7 +2332,7 @@
       <c r="J45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="30" t="s">
         <v>144</v>
       </c>
       <c r="E46" s="29" t="s">
@@ -2348,7 +2358,7 @@
       <c r="J47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="30" t="s">
         <v>148</v>
       </c>
       <c r="E48" s="29" t="s">
@@ -2646,7 +2656,7 @@
       <c r="J72" s="4"/>
     </row>
     <row r="73" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D73" s="28" t="s">
+      <c r="D73" s="30" t="s">
         <v>189</v>
       </c>
       <c r="E73" s="29" t="s">
@@ -2799,7 +2809,7 @@
       <c r="J84" s="4"/>
     </row>
     <row r="85" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D85" s="28" t="s">
+      <c r="D85" s="30" t="s">
         <v>94</v>
       </c>
       <c r="E85" s="29" t="s">
@@ -2812,7 +2822,7 @@
       <c r="J85" s="4"/>
     </row>
     <row r="86" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D86" s="28" t="s">
+      <c r="D86" s="30" t="s">
         <v>96</v>
       </c>
       <c r="E86" s="29" t="s">
@@ -2825,7 +2835,7 @@
       <c r="J86" s="4"/>
     </row>
     <row r="87" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D87" s="28" t="s">
+      <c r="D87" s="30" t="s">
         <v>98</v>
       </c>
       <c r="E87" s="29" t="s">
@@ -7565,94 +7575,94 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
     </row>
     <row r="3" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="O3" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="35" t="s">
+      <c r="P3" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -7660,7 +7670,7 @@
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="37"/>
+      <c r="D12" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7715,54 +7725,54 @@
       <c r="J1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="n">
+      <c r="A4" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="41" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -7780,17 +7790,17 @@
       <c r="G4" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="41" t="n">
+      <c r="H4" s="42" t="n">
         <v>10</v>
       </c>
       <c r="I4" s="24"/>
       <c r="J4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="n">
+      <c r="A5" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="18"/>
       <c r="D5" s="25" t="s">
         <v>198</v>
@@ -7798,23 +7808,23 @@
       <c r="E5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="43" t="s">
         <v>67</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="H5" s="41" t="n">
+      <c r="H5" s="42" t="n">
         <v>2</v>
       </c>
       <c r="I5" s="24"/>
       <c r="J5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="n">
+      <c r="A6" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="18" t="s">
         <v>60</v>
       </c>
@@ -7824,23 +7834,23 @@
       <c r="E6" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="43" t="s">
         <v>63</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H6" s="41" t="n">
+      <c r="H6" s="42" t="n">
         <v>10</v>
       </c>
       <c r="I6" s="24"/>
       <c r="J6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="n">
+      <c r="A7" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="18"/>
       <c r="D7" s="25" t="s">
         <v>202</v>
@@ -7848,23 +7858,23 @@
       <c r="E7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="44" t="s">
         <v>67</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="H7" s="41" t="n">
+      <c r="H7" s="42" t="n">
         <v>2</v>
       </c>
       <c r="I7" s="24"/>
       <c r="J7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40" t="n">
+      <c r="A8" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="18"/>
       <c r="D8" s="22" t="s">
         <v>204</v>
@@ -7872,11 +7882,11 @@
       <c r="E8" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="43"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="41" t="n">
+      <c r="H8" s="42" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="24"/>

--- a/20230306-174629-exportDt.xlsx
+++ b/20230306-174629-exportDt.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="206">
   <si>
     <t xml:space="preserve">SCHEDULE OF SCENARIOS</t>
   </si>
@@ -317,301 +317,304 @@
     <t xml:space="preserve">Checklist SAN - Multipath -- Account: vt_admin</t>
   </si>
   <si>
+    <t xml:space="preserve">echo -e "\nResult:"; list=`dmsetup status| grep linear |awk '{print $1}'| sed -e 's/://g'| grep -v p[0-9]$| grep -v No`; if [[ -z $list ]]; then echo "Server khong co multipath ==&gt; OK"; else for line in $list; do path=`multipath -ll $line | grep running$| wc -l`; if [[ $path -lt 4 ]] ; then echo "Server co line $line co $path path running &lt; 4 ==&gt; WARNING"; else echo "Server co line $line co $path path running &gt;= 4 ==&gt; OK"; fi; done; fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist kdump service (on) -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`systemctl status kdump | grep "Active: active"`; if [[ -z $check ]]; then echo "Kdump service not active ==&gt; WARNING"; else echo -e "Kdump service is actived:\n$check\n==&gt; OK";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist sendmail sevice (off) -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`systemctl status sendmail | grep "Active: active"`; if [[ -z $check ]]; then echo "sendmail service not active ==&gt; OK"; else echo -e "sendmail service is actived:\n$check\n==&gt; WARNING";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist postfix service (off) -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`systemctl status postfix | grep "Active: active"`; if [[ -z $check ]]; then echo "postfix service not active ==&gt; OK"; else echo -e "postfix service is actived:\n$check\n==&gt; WARNING";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist NetworkManager service (off) -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`systemctl status NetworkManager | grep "Active: active"`; if [[ -z $check ]]; then echo "NetworkManager service not active ==&gt; OK"; else echo -e "NetworkManager service is actived:\n$check\n==&gt; WARNING";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist bo card mang ao (virbr) -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`ifconfig -a | grep virbr`; if [[ -z $check ]]; then echo "Khong ton tai card mang ao ==&gt; OK"; else echo -e "Ton tai card mang ao:\n$check\n==&gt; WARNING";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist License OS (neu co) -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat /etc/redhat-release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist SELinux (disabled) -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`cat /etc/selinux/config | grep -v ^# | grep "SELINUX="`; check2=`sestatus | grep "Current mode" | grep "enforcing"`; if [[ $check == *SELINUX=disabled* &amp;&amp; -z $check2 ]]; then echo -e "Selinux da disabled:\n$check\n$check2\n==&gt; OK"; else echo -e "Selinux chua disabled:\n$check\n$check2\n==&gt; WARNING";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist tham so ip_conntrack_max (524288) -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:";standard="/proc/sys/net/nf_conntrack_max"; check=`cat $standard`; if [[ -z $check ]]; then echo "Chua cau hinh tham so $standard ==&gt; WARNING"; elif [ $check -lt 524288 ]; then echo "$standard = $check &lt; 524288 ==&gt; WARNING"; else echo "$standard = $check &gt;= 524288 ==&gt; OK";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist tham so hashsize (131072) -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:";standard="/sys/module/nf_conntrack_ipv4/parameters/hashsize"; check=`cat $standard`; if [[ -z $check ]]; then echo "Chua cau hinh tham so $standard ==&gt; WARNING"; elif [ $check -lt 131072 ]; then echo "$standard = $check &lt; 131072 ==&gt; WARNING"; else echo "$standard = $check &gt;= 131072 ==&gt; OK";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist cau hinh password nerver expire cac user (uid&gt;=500, co quyen bash) -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; list=`cat /etc/passwd |grep /bin/bash  | grep -v ^# | grep -v nfsnobody | awk -F: '($3&gt;=400) {print $1}'`; for user in $list;do check=`chage -l $user | grep "Password expires" |  awk '{print $4}'`; if [[ $check = "never" ]]; then echo "$user: Password expires: $check ==&gt; OK"; else echo "$user: Password expires: $check ==&gt; WARNING"; fi;done; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist cau hinh max_open_file user -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult;"; list=`cat /etc/passwd |grep "/bin/bash" | grep -v ^# | grep -v nfsnobody | awk -F: '($3&gt;=400) {print $1}'`; for user in $list;do check=`cat /etc/security/limits.conf | grep -v ^# | grep -w $user | grep -v soft | grep -w nofile`; if [[ -n $check ]]; then echo "$check ==&gt; OK"; else echo "$user: chua cau hinh nofile ==&gt; WARNING"; fi;done; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist cau hinh max_process user -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; list=`cat /etc/passwd |grep /bin/bash  | grep -v ^# | grep -v nfsnobody | awk -F: '($3&gt;=400) {print $1}'`; for user in $list;do check=`cat /etc/security/limits.conf | grep -v ^# | grep -w $user | grep -v soft | grep -w nproc`; if [[ -n $check ]]; then echo "$check ==&gt; OK"; else echo "$user: chua cau hinh nproc ==&gt; WARNING"; fi;done; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist cau hinh max_open_file Server -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`cat /proc/sys/fs/file-max`; check2=`cat /etc/sysctl.conf | grep -v ^# | grep -w  fs.file-max`; if [[ ! -z $check &amp;&amp; ! -z $check2 ]]; then echo -e "Da cau hinh max open file server:\n/proc/sys/fs/file-max = $check\n$check2\n==&gt; OK"; else echo -e "Chua cau hinh max open file server:\n/proc/sys/fs/file-max = $check\n$check2\n==&gt; WARNING"; fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist bluetooth service (off) -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`systemctl status bluetooth | grep "Active: active"`; if [[ -z $check ]]; then echo "bluetooth service not active ==&gt; OK"; else echo -e "bluetooth service is actived:\n$check\n==&gt; WARNING";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist cupsd service (off) -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`systemctl status cups | grep "Active: active"`; if [[ -z $check ]]; then echo "cups service not active ==&gt; OK"; else echo -e "cups service is actived:\n$check\n==&gt; WARNING";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist cau hinh chi cho phep user nam trong group wheel duoc phep su root -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`cat /etc/pam.d/su | grep -v ^# | grep -w auth | grep -w required | grep -w pam_wheel.so`; if [[ -z $check ]]; then echo "Chua cau hinh chi cho phep user thuoc group wheel duoc su root ==&gt; WARNING"; else echo -e "Da cau hinh chi cho phep user thuoc group wheel duoc su root:\n$check\n==&gt; OK";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult;"; list=`cat /etc/passwd |grep "/bin/bash" | grep -v ^# | grep -v nfsnobody | awk -F: '($3&gt;=400) {print $1}'`; for user in $list;do if [[ $user != monitor &amp;&amp; $user != vt_admin ]]; then check=`cat /etc/group | grep wheel | grep $user`; if [[ -z $check ]]; then echo -e "User ung dung $user khong nam trong group wheel ==&gt; OK"; else echo -e "User ung dung $user nam trong group wheel ==&gt; WARNING"; fi;fi;done; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist mat khau manh (8 ky tu, hoa, thuong, so, dac biet) -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`cat /etc/pam.d/system-auth | grep -v ^# | grep -w password | grep -w "retry=3" | grep -w "minlen=8" | grep -w "dcredit=-1" | grep -w "ucredit=-1" | grep -w "ocredit=-1" | grep -w "lcredit=-1"`; if [[ -z $check ]]; then echo "Chua cau hinh password kho (retry 3 minlen 8 hoa thuong so ky tu?) ==&gt; WARNING"; else echo -e "Da cau hinh chi password kho:\n$check\n==&gt; OK";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist mat khau manh (ma hoa sha512, khong trung 5 lan gan nhat) -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`cat /etc/pam.d/system-auth | grep -v ^# | grep -w password | grep -w sha512 | grep -w "remember=5"`; if [[ -z $check ]]; then echo "Chua cau hinh password kho (sha512 remember 5?) ==&gt; WARNING"; else echo -e "Da cau hinh chi password kho:\n$check\n==&gt; OK";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist thuat toan ma hoa an toan -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`authconfig --test | grep hashing | grep sha512`; if [[ -z $check ]]; then echo "Chua cau hinh ma hoa sha512 ==&gt; WARNING"; else echo -e "Da cau hinh ma hoa sha512:\n$check\n==&gt; OK";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist cau hinh SSH protocol (2) -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`cat /etc/ssh/sshd_config | grep -v ^# | grep -w "Protocol 2"`; if [[ -z $check ]]; then echo "Chua cau hinh Protocol 2 ==&gt; WARNING"; else echo -e "Da cau hinh Protocol 2:\n$check\n==&gt; OK";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist cau hinh SSH PermitRootLogin (no) -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`cat /etc/ssh/sshd_config | grep -v ^# | grep -w "PermitRootLogin no"`; if [[ -z $check ]]; then echo "Chua cau hinh PermitRootLogin no ==&gt; WARNING"; else echo -e "Da cau hinh PermitRootLogin no:\n$check\n==&gt; OK";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist cau hinh SSH AllowUsers -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:\nCac user co uid &gt;=400 va co quyen bash:"; list=`cat /etc/passwd |grep /bin/bash  | grep -v ^# | grep -v nfsnobody | awk -F: '($3&gt;=400) {print $1}'`; for user in $list;do check=`cat /etc/ssh/sshd_config | grep -v ^# | grep -w AllowUsers | grep -w $user`; if [[ $check == *$user* ]] ; then echo "$user OK"; else echo "$user WARNING"; fi; done; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist tu dong ngat phien SSH -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`cat /etc/profile | grep -v ^# | grep -w "TMOUT=300" -A 2 | grep -w "readonly TMOUT" -A 1 | grep -w "export TMOUT"`; if [[ -z $check ]]; then echo "Chua cau hinh TMOUT theo quy dinh ==&gt; WARNING"; else echo -e "Da cau hinh TMOUT theo quy dinh ==&gt; OK";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult;"; check=`cat /etc/profile | grep -v ^# | grep "TMOUT=300" | wc -l`; if [[ $check == 0 ]]; then echo -e "/etc/profile chua cau hinh tu dong ngat phien SSH TMOUT ==&gt; WARNING"; elif [[ $check == 1 ]]; then echo -e "/etc/profile da cau hinh tu dong ngat phien SSH TMOUT ==&gt; OK"; else echo -e "/etc/profile cau hinh tu dong ngat phien SSH TMOUT bi lap ==&gt; WARNING"; fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist bandwidth network -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; list=`ip a | grep "state UP" | awk '{print $2}'| awk -F: '{print $1}'`; for i in $list; do check=`ethtool "$i" | grep "Speed" | awk '{print $2}'| awk -FM '{print $1}'`; if [ $check -lt 1000 ]; then echo "Card mang $i co Speed: $check Mb/s ==&gt; WARNING"; else echo "Card mang $i co Speed: $check Mb/s ==&gt; OK"; fi; done; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist version openssl -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; array=("1.0.1e" "1.0.2k" "1.0.1u" "1.0.2j" "1.1.0a" "1.1.0g" "1.0.2n"); variable="WARNING"; for i in "${array[@]}"; do check=`openssl version -a | grep "$i"`; if [[ ! -z $check ]]; then echo "$check ==&gt; OK"; variable="OK"; break; fi; done; if [[ $variable == WARNING ]]; then echo "Version OpenSSL khong nam trong whitelist ==&gt; $variable";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist file unowner -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`find / -xdev \( -nouser -o -nogroup \) -print`; if [[ -z $check ]]; then echo "Khong co file unowner ==&gt; OK"; else echo "Ton tai file unowner ==&gt; WARNING";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist bien moi truong -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`echo $PATH | grep "\./\|::\|/tmp"`; if [[ -z $check ]]; then echo "Khong co bien \$PATH nguy hiem ==&gt; OK"; else echo -e "Ton tai bien \$PATH nguy hiem (./  ::  /tmp):\n$PATH ==&gt; WARNING";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist cau hinh crontab -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`ls /etc/ | grep cron.deny`; if [[ -z $check ]]; then echo "Da xoa file /etc/cron.deny ==&gt; OK"; else echo "Chua xoa file /etc/cron.deny ==&gt; WARNING";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`ls /etc/ | grep cron.allow`; if [[ -z $check ]]; then echo "Chua tao file /etc/cron.allow ==&gt; WARNING"; else echo "Da tao file /etc/cron.allow ==&gt; OK";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist crontab toi thieu -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check1=`crontab -l | grep -v ^# | grep -v "sd_agent" | grep -v "scms-agent"`; check2=`crontab -l | grep -v ^# | grep sd_agent | grep sd_agent_monitor.sh`; check3=`crontab -l | grep -v ^# | grep scms-agent | grep scms-mon`; if [[ -z $check2 ]]; then echo -e "Chua cau hinh crontab sd_agent ==&gt; WARNING"; elif [[ -z $check3 ]]; then echo -e "Chua cau hinh crontab scms_agent ==&gt; WARNING"; elif [[ ! -z $check1 ]]; then echo -e "Chua cau hinh crontab toi thieu (chi cho phep crontab sd_agent va scms_agent) ==&gt; WARNING"; else echo -e "Da gioi han crontab toi thieu: sd_agent va scms_agent ==&gt; OK"; fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist cau hinh SYSLOG (rsyslog) 1 -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; array=("/var/log/cron" "/var/log/maillog" "/var/log/messages" "/var/log/secure" "/var/log/spooler" "{" "compress" "sharedscripts" "postrotate" "/bin/kill -HUP \`cat /var/run/syslogd.pid 2&gt; /dev/null\` 2&gt; /dev/null || true"  "endscript" "}"); for i in "${array[@]}"; do check=`cat /etc/logrotate.d/syslog | grep -v ^# | grep -w "$i"`; if [[ $check == *$i* ]] ; then echo "$i ==&gt; OK" ; else echo "$i ==&gt; WARNING";fi;done; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; array=("weekly" "rotate 12" "create" "dateext" "include /etc/logrotate.d" "/var/log/wtmp {" "create 0664 root utmp" "}" "/var/log/btmp {" "create 0600 root utmp" "}"); for i in "${array[@]}"; do check=`cat /etc/logrotate.conf | grep -v ^# | grep -w "$i"`; if [[ $check == *$i* ]] ; then echo "$i ==&gt; OK" ; else echo "$i ==&gt; WARNING";fi;done; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; array=("/var/log/cmdlog.log" "{" "compress" "weekly" "rotate 12" "sharedscripts" "postrotate" "/bin/kill -HUP \`cat /var/run/syslogd.pid 2&gt; /dev/null\` 2&gt; /dev/null || true" "endscript" "}"); for i in "${array[@]}"; do check=`cat /etc/logrotate.d/cmdlog | grep -v ^# | grep -w "$i"`; if [[ $check == *$i* ]] ; then echo "$i ==&gt; OK" ; else echo "$i ==&gt; WARNING";fi;done; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; array=("/var/log/iptables/iptables.log" "{" "daily" "rotate 30" "copytruncate" "compress" "notifempty" "missingok" "}"); for i in "${array[@]}"; do check=`cat /etc/logrotate.d/iptables | grep -v ^# | grep -w "$i"`; if [[ $check == *$i* ]] ; then echo "$i ==&gt; OK" ; else echo "$i ==&gt; WARNING";fi;done; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist cau hinh SYSLOG (rsyslog) 2 -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; i="export PROMPT_COMMAND"; check=`cat /etc/bashrc | grep -v ^# | grep -w "$i"`; if [[ $check == *$i* ]] ; then echo "$check ==&gt; OK" ; else echo "$check ==&gt; WARNING";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; array=("/var/log/cmdlog.log" "/var/log/iptables/iptables.log"); for i in "${array[@]}"; do check=`cat /etc/rsyslog.conf | grep -v ^# | grep -w "$i"`; if [[ $check == *$i* ]] ; then echo "$i ==&gt; OK" ; else echo "$i ==&gt; WARNING";fi;done; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value="check_new_log_202303061734";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`tail -100 /var/log/cmdlog.log | grep $value`; if [[ -z $check ]]; then echo "Dont have new log ==&gt; WARNING" ; else echo "Have new log ==&gt; OK";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist cau hinh SYSLOG (rsyslog) 3 -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult;"; check=`cat /etc/bashrc | grep -v ^# | grep "export PROMPT_COMMAND" | grep "local6.debug" | wc -l`; if [[ $check == 0 ]]; then echo -e "/etc/bashrc chua cau hinh ghi log cmd ==&gt; WARNING"; elif [[ $check == 1 ]]; then echo -e "/etc/bashrc da cau hinh ghi log cmd ==&gt; OK"; else echo -e "/etc/bashrc cau hinh ghi log cmd bi lap ==&gt; WARNING"; fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult;"; check=`cat /etc/rsyslog.conf | grep -v ^# | grep "local6" | grep "/var/log/cmdlog.log" | wc -l`; if [[ $check == 0 ]]; then echo -e "rsyslog.conf chua cau hinh ghi log cmd ==&gt; WARNING"; elif [[ $check == 1 ]]; then echo -e "rsyslog.conf da cau hinh ghi log cmd ==&gt; OK"; else echo -e "rsyslog.conf cau hinh ghi log cmd bi lap ==&gt; WARNING"; fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult;"; check=`cat /etc/rsyslog.conf | grep -v ^# | grep "kern.debug" | grep "/var/log/iptables/iptables.log" | wc -l`; if [[ $check == 0 ]]; then echo -e "rsyslog.conf chua cau hinh ghi log kern.debug ==&gt; WARNING"; elif [[ $check == 1 ]]; then echo -e "rsyslog.conf da cau hinh ghi log $check ==&gt; OK"; else echo -e "rsyslog.conf cau hinh ghi log kern.debug bi lap ==&gt; WARNING"; fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist iptables service (on) -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`systemctl status iptables| grep "Active: active"`; if [[ -z $check ]]; then echo "iptables khong hoat dong ==&gt; WARNING"; else echo "iptables dang hoat dong ==&gt; OK";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist cai dat SIRC -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`/opt/se/salt-call vsm.status | grep "2014\|2017"`; if [[ -z $check ]]; then echo "Chua cai dat SIRC hoac SIRC khong hoat dong ==&gt; WARNING_SIRC"; else echo "SIRC dang hoat dong ==&gt; OK";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist tham so zone_reclaim_mode (0) -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`cat /proc/sys/vm/zone_reclaim_mode`; if [[ $check != 0 ]]; then echo -e "Tham so zone_reclaim_mode khac 0:\n/proc/sys/vm/zone_reclaim_mode=$check ==&gt; WARNING"; else echo "Tham so zone_reclaim_mode=0 ==&gt; OK";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist mysql not active -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`ps -ef | grep mysql | grep -v ^root`; if [[ -z $check ]]; then echo "mysql not active ==&gt; OK"; else echo -e "mysql is actived:\n$check\n==&gt; WARNING";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist phan vung swap -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`cat /proc/swaps | tail -n+2`; if [[ -z $check ]]; then echo "Server khong co Swap ==&gt; WARNING"; else echo "Server da co Swap ==&gt; OK";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist cau hinh ORACLEASM_SCANORDER -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; if [[ -e /etc/sysconfig/oracleasm ]]; then check1=`cat /etc/sysconfig/oracleasm | grep -v ^#| grep ORACLEASM_SCANORDER | grep -i dm |wc -l`; check2=`cat /etc/sysconfig/oracleasm | grep -v ^#| grep ORACLEASM_SCANEXCLUDE | grep -i sd |wc -l`; if [[ $check1 &gt; 0 &amp;&amp; $check2 &gt; 0 ]]; then echo -e "\nORACLEASM_SCANORDER: $check1\nORACLEASM_SCANEXCLUDE: $check2\n==&gt; OK"; else echo -e "\nORACLEASM_SCANORDER: $check1\nORACLEASM_SCANEXCLUDE: $check2\n==&gt; WARNING"; fi; else echo "Server khong co file /etc/sysconfig/oracleasm ==&gt; OK"; fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist haveged service (on) -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; vmware=`dmidecode -t system | grep -i "Vmware\|OpenStack"`; if [[ -z $vmware ]]; then echo "Server vat ly khong can haveged ==&gt; OK"; else check=`rpm -qa | grep haveged`; if [[ -z $check ]]; then echo "Server ao hoa khong cai dat haveged ==&gt; WARNING"; else checkrunning=`service haveged status 2&gt;/dev/null | grep running`; if [[ -z $checkrunning ]]; then echo "Service haveged not running ==&gt; WARNING"; else echo "Service haveged is running ==&gt; OK"; fi; fi; fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist goi co ban linux7 -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; array=("telnet" "sysstat" "lsof" "dmidecode" "net-tools" "pciutils" "iptables-services" "ntp" "ftp" "nmap" "iotop" "wget" "zip" "unzip" "sysfsutils" "traceroute" "e2fsprogs"); for i in "${array[@]}"; do check=`rpm -qa | grep ^$i-`; if [[ ! -z $check ]] ; then echo "$i ==&gt; OK" ; else echo "$i ==&gt; WARNING";fi;done; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist cau hinh swappiness -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -e "\nResult:"; check=`cat /proc/sys/vm/swappiness`; if [[ -z $check || $check -gt 10 ]]; then echo "Server cau hinh Swappiness khong dung: Swappiness=$check ==&gt; WARNING"; else echo "Server da cau hinh Swappiness=$check ==&gt; OK";fi; echo "";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist ket noi toi repo tap trung -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repo_check=`curl --connect-timeout 3 -s -o /dev/null -I -w "%{http_code}" 10.60.129.132`; if [ $repo_check != 200 ]; then echo "Repo connect NOK ==&gt; WARNING"; else echo "repo connect ==&gt; OK"; fi;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next criteria -- Account: vt_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo "NEXT CRITERIA";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">echo -e "\nResult:"; list=`dmsetup status| grep -vw linear |awk '{print $1}'| sed -e 's/://g'| grep -v p[0-9]$| grep -v No`; if [[ -z $list ]]; then echo "Server khong co multipath ==&gt; OK"; else for line in $list; do path=`multipath -ll $line | grep running$| wc -l`; if [[ $path -lt 4 ]] ; then echo "Server co line $line co $path path running &lt; 4 ==&gt; WARNING"; else echo "Server co line $line co $path path running &gt;= 4 ==&gt; OK"; fi; done; fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist kdump service (on) -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`systemctl status kdump | grep "Active: active"`; if [[ -z $check ]]; then echo "Kdump service not active ==&gt; WARNING"; else echo -e "Kdump service is actived:\n$check\n==&gt; OK";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist sendmail sevice (off) -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`systemctl status sendmail | grep "Active: active"`; if [[ -z $check ]]; then echo "sendmail service not active ==&gt; OK"; else echo -e "sendmail service is actived:\n$check\n==&gt; WARNING";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist postfix service (off) -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`systemctl status postfix | grep "Active: active"`; if [[ -z $check ]]; then echo "postfix service not active ==&gt; OK"; else echo -e "postfix service is actived:\n$check\n==&gt; WARNING";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist NetworkManager service (off) -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`systemctl status NetworkManager | grep "Active: active"`; if [[ -z $check ]]; then echo "NetworkManager service not active ==&gt; OK"; else echo -e "NetworkManager service is actived:\n$check\n==&gt; WARNING";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist bo card mang ao (virbr) -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`ifconfig -a | grep virbr`; if [[ -z $check ]]; then echo "Khong ton tai card mang ao ==&gt; OK"; else echo -e "Ton tai card mang ao:\n$check\n==&gt; WARNING";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist License OS (neu co) -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cat /etc/redhat-release</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist SELinux (disabled) -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`cat /etc/selinux/config | grep -v ^# | grep "SELINUX="`; check2=`sestatus | grep "Current mode" | grep "enforcing"`; if [[ $check == *SELINUX=disabled* &amp;&amp; -z $check2 ]]; then echo -e "Selinux da disabled:\n$check\n$check2\n==&gt; OK"; else echo -e "Selinux chua disabled:\n$check\n$check2\n==&gt; WARNING";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist tham so ip_conntrack_max (524288) -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:";standard="/proc/sys/net/nf_conntrack_max"; check=`cat $standard`; if [[ -z $check ]]; then echo "Chua cau hinh tham so $standard ==&gt; WARNING"; elif [ $check -lt 524288 ]; then echo "$standard = $check &lt; 524288 ==&gt; WARNING"; else echo "$standard = $check &gt;= 524288 ==&gt; OK";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist tham so hashsize (131072) -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:";standard="/sys/module/nf_conntrack_ipv4/parameters/hashsize"; check=`cat $standard`; if [[ -z $check ]]; then echo "Chua cau hinh tham so $standard ==&gt; WARNING"; elif [ $check -lt 131072 ]; then echo "$standard = $check &lt; 131072 ==&gt; WARNING"; else echo "$standard = $check &gt;= 131072 ==&gt; OK";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist cau hinh password nerver expire cac user (uid&gt;=500, co quyen bash) -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; list=`cat /etc/passwd |grep /bin/bash  | grep -v ^# | grep -v nfsnobody | awk -F: '($3&gt;=400) {print $1}'`; for user in $list;do check=`chage -l $user | grep "Password expires" |  awk '{print $4}'`; if [[ $check = "never" ]]; then echo "$user: Password expires: $check ==&gt; OK"; else echo "$user: Password expires: $check ==&gt; WARNING"; fi;done; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist cau hinh max_open_file user -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult;"; list=`cat /etc/passwd |grep "/bin/bash" | grep -v ^# | grep -v nfsnobody | awk -F: '($3&gt;=400) {print $1}'`; for user in $list;do check=`cat /etc/security/limits.conf | grep -v ^# | grep -w $user | grep -v soft | grep -w nofile`; if [[ -n $check ]]; then echo "$check ==&gt; OK"; else echo "$user: chua cau hinh nofile ==&gt; WARNING"; fi;done; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist cau hinh max_process user -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; list=`cat /etc/passwd |grep /bin/bash  | grep -v ^# | grep -v nfsnobody | awk -F: '($3&gt;=400) {print $1}'`; for user in $list;do check=`cat /etc/security/limits.conf | grep -v ^# | grep -w $user | grep -v soft | grep -w nproc`; if [[ -n $check ]]; then echo "$check ==&gt; OK"; else echo "$user: chua cau hinh nproc ==&gt; WARNING"; fi;done; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist cau hinh max_open_file Server -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`cat /proc/sys/fs/file-max`; check2=`cat /etc/sysctl.conf | grep -v ^# | grep -w  fs.file-max`; if [[ ! -z $check &amp;&amp; ! -z $check2 ]]; then echo -e "Da cau hinh max open file server:\n/proc/sys/fs/file-max = $check\n$check2\n==&gt; OK"; else echo -e "Chua cau hinh max open file server:\n/proc/sys/fs/file-max = $check\n$check2\n==&gt; WARNING"; fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist bluetooth service (off) -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`systemctl status bluetooth | grep "Active: active"`; if [[ -z $check ]]; then echo "bluetooth service not active ==&gt; OK"; else echo -e "bluetooth service is actived:\n$check\n==&gt; WARNING";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist cupsd service (off) -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`systemctl status cups | grep "Active: active"`; if [[ -z $check ]]; then echo "cups service not active ==&gt; OK"; else echo -e "cups service is actived:\n$check\n==&gt; WARNING";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist cau hinh chi cho phep user nam trong group wheel duoc phep su root -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`cat /etc/pam.d/su | grep -v ^# | grep -w auth | grep -w required | grep -w pam_wheel.so`; if [[ -z $check ]]; then echo "Chua cau hinh chi cho phep user thuoc group wheel duoc su root ==&gt; WARNING"; else echo -e "Da cau hinh chi cho phep user thuoc group wheel duoc su root:\n$check\n==&gt; OK";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult;"; list=`cat /etc/passwd |grep "/bin/bash" | grep -v ^# | grep -v nfsnobody | awk -F: '($3&gt;=400) {print $1}'`; for user in $list;do if [[ $user != monitor &amp;&amp; $user != vt_admin ]]; then check=`cat /etc/group | grep wheel | grep $user`; if [[ -z $check ]]; then echo -e "User ung dung $user khong nam trong group wheel ==&gt; OK"; else echo -e "User ung dung $user nam trong group wheel ==&gt; WARNING"; fi;fi;done; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist mat khau manh (8 ky tu, hoa, thuong, so, dac biet) -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`cat /etc/pam.d/system-auth | grep -v ^# | grep -w password | grep -w "retry=3" | grep -w "minlen=8" | grep -w "dcredit=-1" | grep -w "ucredit=-1" | grep -w "ocredit=-1" | grep -w "lcredit=-1"`; if [[ -z $check ]]; then echo "Chua cau hinh password kho (retry 3 minlen 8 hoa thuong so ky tu?) ==&gt; WARNING"; else echo -e "Da cau hinh chi password kho:\n$check\n==&gt; OK";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist mat khau manh (ma hoa sha512, khong trung 5 lan gan nhat) -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`cat /etc/pam.d/system-auth | grep -v ^# | grep -w password | grep -w sha512 | grep -w "remember=5"`; if [[ -z $check ]]; then echo "Chua cau hinh password kho (sha512 remember 5?) ==&gt; WARNING"; else echo -e "Da cau hinh chi password kho:\n$check\n==&gt; OK";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist thuat toan ma hoa an toan -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`authconfig --test | grep hashing | grep sha512`; if [[ -z $check ]]; then echo "Chua cau hinh ma hoa sha512 ==&gt; WARNING"; else echo -e "Da cau hinh ma hoa sha512:\n$check\n==&gt; OK";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist cau hinh SSH protocol (2) -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`cat /etc/ssh/sshd_config | grep -v ^# | grep -w "Protocol 2"`; if [[ -z $check ]]; then echo "Chua cau hinh Protocol 2 ==&gt; WARNING"; else echo -e "Da cau hinh Protocol 2:\n$check\n==&gt; OK";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist cau hinh SSH PermitRootLogin (no) -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`cat /etc/ssh/sshd_config | grep -v ^# | grep -w "PermitRootLogin no"`; if [[ -z $check ]]; then echo "Chua cau hinh PermitRootLogin no ==&gt; WARNING"; else echo -e "Da cau hinh PermitRootLogin no:\n$check\n==&gt; OK";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist cau hinh SSH AllowUsers -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:\nCac user co uid &gt;=400 va co quyen bash:"; list=`cat /etc/passwd |grep /bin/bash  | grep -v ^# | grep -v nfsnobody | awk -F: '($3&gt;=400) {print $1}'`; for user in $list;do check=`cat /etc/ssh/sshd_config | grep -v ^# | grep -w AllowUsers | grep -w $user`; if [[ $check == *$user* ]] ; then echo "$user OK"; else echo "$user WARNING"; fi; done; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist tu dong ngat phien SSH -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`cat /etc/profile | grep -v ^# | grep -w "TMOUT=300" -A 2 | grep -w "readonly TMOUT" -A 1 | grep -w "export TMOUT"`; if [[ -z $check ]]; then echo "Chua cau hinh TMOUT theo quy dinh ==&gt; WARNING"; else echo -e "Da cau hinh TMOUT theo quy dinh ==&gt; OK";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult;"; check=`cat /etc/profile | grep -v ^# | grep "TMOUT=300" | wc -l`; if [[ $check == 0 ]]; then echo -e "/etc/profile chua cau hinh tu dong ngat phien SSH TMOUT ==&gt; WARNING"; elif [[ $check == 1 ]]; then echo -e "/etc/profile da cau hinh tu dong ngat phien SSH TMOUT ==&gt; OK"; else echo -e "/etc/profile cau hinh tu dong ngat phien SSH TMOUT bi lap ==&gt; WARNING"; fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist bandwidth network -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; list=`ip a | grep "state UP" | awk '{print $2}'| awk -F: '{print $1}'`; for i in $list; do check=`ethtool "$i" | grep "Speed" | awk '{print $2}'| awk -FM '{print $1}'`; if [ $check -lt 1000 ]; then echo "Card mang $i co Speed: $check Mb/s ==&gt; WARNING"; else echo "Card mang $i co Speed: $check Mb/s ==&gt; OK"; fi; done; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist version openssl -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; array=("1.0.1e" "1.0.2k" "1.0.1u" "1.0.2j" "1.1.0a" "1.1.0g" "1.0.2n"); variable="WARNING"; for i in "${array[@]}"; do check=`openssl version -a | grep "$i"`; if [[ ! -z $check ]]; then echo "$check ==&gt; OK"; variable="OK"; break; fi; done; if [[ $variable == WARNING ]]; then echo "Version OpenSSL khong nam trong whitelist ==&gt; $variable";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist file unowner -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`find / -xdev \( -nouser -o -nogroup \) -print`; if [[ -z $check ]]; then echo "Khong co file unowner ==&gt; OK"; else echo "Ton tai file unowner ==&gt; WARNING";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist bien moi truong -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`echo $PATH | grep "\./\|::\|/tmp"`; if [[ -z $check ]]; then echo "Khong co bien \$PATH nguy hiem ==&gt; OK"; else echo -e "Ton tai bien \$PATH nguy hiem (./  ::  /tmp):\n$PATH ==&gt; WARNING";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist cau hinh crontab -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`ls /etc/ | grep cron.deny`; if [[ -z $check ]]; then echo "Da xoa file /etc/cron.deny ==&gt; OK"; else echo "Chua xoa file /etc/cron.deny ==&gt; WARNING";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`ls /etc/ | grep cron.allow`; if [[ -z $check ]]; then echo "Chua tao file /etc/cron.allow ==&gt; WARNING"; else echo "Da tao file /etc/cron.allow ==&gt; OK";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist crontab toi thieu -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check1=`crontab -l | grep -v ^# | grep -v "sd_agent" | grep -v "scms-agent"`; check2=`crontab -l | grep -v ^# | grep sd_agent | grep sd_agent_monitor.sh`; check3=`crontab -l | grep -v ^# | grep scms-agent | grep scms-mon`; if [[ -z $check2 ]]; then echo -e "Chua cau hinh crontab sd_agent ==&gt; WARNING"; elif [[ -z $check3 ]]; then echo -e "Chua cau hinh crontab scms_agent ==&gt; WARNING"; elif [[ ! -z $check1 ]]; then echo -e "Chua cau hinh crontab toi thieu (chi cho phep crontab sd_agent va scms_agent) ==&gt; WARNING"; else echo -e "Da gioi han crontab toi thieu: sd_agent va scms_agent ==&gt; OK"; fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist cau hinh SYSLOG (rsyslog) 1 -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; array=("/var/log/cron" "/var/log/maillog" "/var/log/messages" "/var/log/secure" "/var/log/spooler" "{" "compress" "sharedscripts" "postrotate" "/bin/kill -HUP \`cat /var/run/syslogd.pid 2&gt; /dev/null\` 2&gt; /dev/null || true"  "endscript" "}"); for i in "${array[@]}"; do check=`cat /etc/logrotate.d/syslog | grep -v ^# | grep -w "$i"`; if [[ $check == *$i* ]] ; then echo "$i ==&gt; OK" ; else echo "$i ==&gt; WARNING";fi;done; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; array=("weekly" "rotate 12" "create" "dateext" "include /etc/logrotate.d" "/var/log/wtmp {" "create 0664 root utmp" "}" "/var/log/btmp {" "create 0600 root utmp" "}"); for i in "${array[@]}"; do check=`cat /etc/logrotate.conf | grep -v ^# | grep -w "$i"`; if [[ $check == *$i* ]] ; then echo "$i ==&gt; OK" ; else echo "$i ==&gt; WARNING";fi;done; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; array=("/var/log/cmdlog.log" "{" "compress" "weekly" "rotate 12" "sharedscripts" "postrotate" "/bin/kill -HUP \`cat /var/run/syslogd.pid 2&gt; /dev/null\` 2&gt; /dev/null || true" "endscript" "}"); for i in "${array[@]}"; do check=`cat /etc/logrotate.d/cmdlog | grep -v ^# | grep -w "$i"`; if [[ $check == *$i* ]] ; then echo "$i ==&gt; OK" ; else echo "$i ==&gt; WARNING";fi;done; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; array=("/var/log/iptables/iptables.log" "{" "daily" "rotate 30" "copytruncate" "compress" "notifempty" "missingok" "}"); for i in "${array[@]}"; do check=`cat /etc/logrotate.d/iptables | grep -v ^# | grep -w "$i"`; if [[ $check == *$i* ]] ; then echo "$i ==&gt; OK" ; else echo "$i ==&gt; WARNING";fi;done; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist cau hinh SYSLOG (rsyslog) 2 -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; i="export PROMPT_COMMAND"; check=`cat /etc/bashrc | grep -v ^# | grep -w "$i"`; if [[ $check == *$i* ]] ; then echo "$check ==&gt; OK" ; else echo "$check ==&gt; WARNING";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; array=("/var/log/cmdlog.log" "/var/log/iptables/iptables.log"); for i in "${array[@]}"; do check=`cat /etc/rsyslog.conf | grep -v ^# | grep -w "$i"`; if [[ $check == *$i* ]] ; then echo "$i ==&gt; OK" ; else echo "$i ==&gt; WARNING";fi;done; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value="check_new_log_202303061734";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`tail -100 /var/log/cmdlog.log | grep $value`; if [[ -z $check ]]; then echo "Dont have new log ==&gt; WARNING" ; else echo "Have new log ==&gt; OK";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist cau hinh SYSLOG (rsyslog) 3 -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult;"; check=`cat /etc/bashrc | grep -v ^# | grep "export PROMPT_COMMAND" | grep "local6.debug" | wc -l`; if [[ $check == 0 ]]; then echo -e "/etc/bashrc chua cau hinh ghi log cmd ==&gt; WARNING"; elif [[ $check == 1 ]]; then echo -e "/etc/bashrc da cau hinh ghi log cmd ==&gt; OK"; else echo -e "/etc/bashrc cau hinh ghi log cmd bi lap ==&gt; WARNING"; fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult;"; check=`cat /etc/rsyslog.conf | grep -v ^# | grep "local6" | grep "/var/log/cmdlog.log" | wc -l`; if [[ $check == 0 ]]; then echo -e "rsyslog.conf chua cau hinh ghi log cmd ==&gt; WARNING"; elif [[ $check == 1 ]]; then echo -e "rsyslog.conf da cau hinh ghi log cmd ==&gt; OK"; else echo -e "rsyslog.conf cau hinh ghi log cmd bi lap ==&gt; WARNING"; fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult;"; check=`cat /etc/rsyslog.conf | grep -v ^# | grep "kern.debug" | grep "/var/log/iptables/iptables.log" | wc -l`; if [[ $check == 0 ]]; then echo -e "rsyslog.conf chua cau hinh ghi log kern.debug ==&gt; WARNING"; elif [[ $check == 1 ]]; then echo -e "rsyslog.conf da cau hinh ghi log $check ==&gt; OK"; else echo -e "rsyslog.conf cau hinh ghi log kern.debug bi lap ==&gt; WARNING"; fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist iptables service (on) -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`systemctl status iptables| grep "Active: active"`; if [[ -z $check ]]; then echo "iptables khong hoat dong ==&gt; WARNING"; else echo "iptables dang hoat dong ==&gt; OK";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist cai dat SIRC -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`/opt/se/salt-call vsm.status | grep "2014\|2017"`; if [[ -z $check ]]; then echo "Chua cai dat SIRC hoac SIRC khong hoat dong ==&gt; WARNING_SIRC"; else echo "SIRC dang hoat dong ==&gt; OK";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist tham so zone_reclaim_mode (0) -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`cat /proc/sys/vm/zone_reclaim_mode`; if [[ $check != 0 ]]; then echo -e "Tham so zone_reclaim_mode khac 0:\n/proc/sys/vm/zone_reclaim_mode=$check ==&gt; WARNING"; else echo "Tham so zone_reclaim_mode=0 ==&gt; OK";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist mysql not active -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`ps -ef | grep mysql | grep -v ^root`; if [[ -z $check ]]; then echo "mysql not active ==&gt; OK"; else echo -e "mysql is actived:\n$check\n==&gt; WARNING";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist phan vung swap -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`cat /proc/swaps | tail -n+2`; if [[ -z $check ]]; then echo "Server khong co Swap ==&gt; WARNING"; else echo "Server da co Swap ==&gt; OK";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist cau hinh ORACLEASM_SCANORDER -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; if [[ -e /etc/sysconfig/oracleasm ]]; then check1=`cat /etc/sysconfig/oracleasm | grep -v ^#| grep ORACLEASM_SCANORDER | grep -i dm |wc -l`; check2=`cat /etc/sysconfig/oracleasm | grep -v ^#| grep ORACLEASM_SCANEXCLUDE | grep -i sd |wc -l`; if [[ $check1 &gt; 0 &amp;&amp; $check2 &gt; 0 ]]; then echo -e "\nORACLEASM_SCANORDER: $check1\nORACLEASM_SCANEXCLUDE: $check2\n==&gt; OK"; else echo -e "\nORACLEASM_SCANORDER: $check1\nORACLEASM_SCANEXCLUDE: $check2\n==&gt; WARNING"; fi; else echo "Server khong co file /etc/sysconfig/oracleasm ==&gt; OK"; fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist haveged service (on) -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; vmware=`dmidecode -t system | grep -i "Vmware\|OpenStack"`; if [[ -z $vmware ]]; then echo "Server vat ly khong can haveged ==&gt; OK"; else check=`rpm -qa | grep haveged`; if [[ -z $check ]]; then echo "Server ao hoa khong cai dat haveged ==&gt; WARNING"; else checkrunning=`service haveged status 2&gt;/dev/null | grep running`; if [[ -z $checkrunning ]]; then echo "Service haveged not running ==&gt; WARNING"; else echo "Service haveged is running ==&gt; OK"; fi; fi; fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist goi co ban linux7 -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; array=("telnet" "sysstat" "lsof" "dmidecode" "net-tools" "pciutils" "iptables-services" "ntp" "ftp" "nmap" "iotop" "wget" "zip" "unzip" "sysfsutils" "traceroute" "e2fsprogs"); for i in "${array[@]}"; do check=`rpm -qa | grep ^$i-`; if [[ ! -z $check ]] ; then echo "$i ==&gt; OK" ; else echo "$i ==&gt; WARNING";fi;done; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist cau hinh swappiness -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo -e "\nResult:"; check=`cat /proc/sys/vm/swappiness`; if [[ -z $check || $check -gt 10 ]]; then echo "Server cau hinh Swappiness khong dung: Swappiness=$check ==&gt; WARNING"; else echo "Server da cau hinh Swappiness=$check ==&gt; OK";fi; echo "";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checklist ket noi toi repo tap trung -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repo_check=`curl --connect-timeout 3 -s -o /dev/null -I -w "%{http_code}" 10.60.129.132`; if [ $repo_check != 200 ]; then echo "Repo connect NOK ==&gt; WARNING"; else echo "repo connect ==&gt; OK"; fi;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next criteria -- Account: vt_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">echo "NEXT CRITERIA";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1673,8 +1676,8 @@
   </sheetPr>
   <dimension ref="A1:J463"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2800,7 +2803,7 @@
         <v>92</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -3609,7 +3612,7 @@
         <v>92</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
@@ -4418,7 +4421,7 @@
         <v>92</v>
       </c>
       <c r="E214" s="29" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
@@ -5227,7 +5230,7 @@
         <v>92</v>
       </c>
       <c r="E279" s="29" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
@@ -6036,7 +6039,7 @@
         <v>92</v>
       </c>
       <c r="E344" s="29" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="F344" s="4"/>
       <c r="G344" s="4"/>
@@ -6845,7 +6848,7 @@
         <v>92</v>
       </c>
       <c r="E409" s="29" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
@@ -7576,7 +7579,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -7596,7 +7599,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -7607,7 +7610,7 @@
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
       <c r="J2" s="34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
@@ -7648,7 +7651,7 @@
         <v>51</v>
       </c>
       <c r="K3" s="36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L3" s="37" t="s">
         <v>53</v>
@@ -7712,7 +7715,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -7735,7 +7738,7 @@
         <v>51</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E2" s="39" t="s">
         <v>53</v>
@@ -7747,7 +7750,7 @@
         <v>55</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I2" s="39" t="s">
         <v>57</v>
@@ -7803,7 +7806,7 @@
       <c r="B5" s="41"/>
       <c r="C5" s="18"/>
       <c r="D5" s="25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>66</v>
@@ -7812,7 +7815,7 @@
         <v>67</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H5" s="42" t="n">
         <v>2</v>
@@ -7829,7 +7832,7 @@
         <v>60</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>62</v>
@@ -7838,7 +7841,7 @@
         <v>63</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H6" s="42" t="n">
         <v>10</v>
@@ -7853,7 +7856,7 @@
       <c r="B7" s="41"/>
       <c r="C7" s="18"/>
       <c r="D7" s="25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>66</v>
@@ -7862,7 +7865,7 @@
         <v>67</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H7" s="42" t="n">
         <v>2</v>
@@ -7877,7 +7880,7 @@
       <c r="B8" s="41"/>
       <c r="C8" s="18"/>
       <c r="D8" s="22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>73</v>
@@ -8023,7 +8026,7 @@
         <v>92</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -8830,7 +8833,7 @@
         <v>92</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -9637,7 +9640,7 @@
         <v>92</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
@@ -10444,7 +10447,7 @@
         <v>92</v>
       </c>
       <c r="E214" s="29" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
@@ -11251,7 +11254,7 @@
         <v>92</v>
       </c>
       <c r="E279" s="29" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
@@ -12058,7 +12061,7 @@
         <v>92</v>
       </c>
       <c r="E344" s="29" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="F344" s="4"/>
       <c r="G344" s="4"/>
@@ -12865,7 +12868,7 @@
         <v>92</v>
       </c>
       <c r="E409" s="29" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>

--- a/20230306-174629-exportDt.xlsx
+++ b/20230306-174629-exportDt.xlsx
@@ -1677,7 +1677,7 @@
   <dimension ref="A1:J463"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1990,7 +1990,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="30" t="s">
         <v>92</v>
       </c>
       <c r="E19" s="29" t="s">

--- a/20230306-174629-exportDt.xlsx
+++ b/20230306-174629-exportDt.xlsx
@@ -1676,8 +1676,8 @@
   </sheetPr>
   <dimension ref="A1:J463"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2322,7 +2322,7 @@
       <c r="J44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="30" t="s">
         <v>142</v>
       </c>
       <c r="E45" s="29" t="s">
@@ -2348,7 +2348,7 @@
       <c r="J46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="30" t="s">
         <v>146</v>
       </c>
       <c r="E47" s="29" t="s">
@@ -2568,7 +2568,7 @@
       <c r="J65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D66" s="28" t="s">
+      <c r="D66" s="30" t="s">
         <v>175</v>
       </c>
       <c r="E66" s="29" t="s">
@@ -2581,7 +2581,7 @@
       <c r="J66" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="30" t="s">
         <v>177</v>
       </c>
       <c r="E67" s="29" t="s">
@@ -2607,7 +2607,7 @@
       <c r="J68" s="4"/>
     </row>
     <row r="69" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D69" s="28" t="s">
+      <c r="D69" s="30" t="s">
         <v>181</v>
       </c>
       <c r="E69" s="29" t="s">
@@ -2620,7 +2620,7 @@
       <c r="J69" s="4"/>
     </row>
     <row r="70" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D70" s="28" t="s">
+      <c r="D70" s="30" t="s">
         <v>183</v>
       </c>
       <c r="E70" s="29" t="s">
@@ -2633,7 +2633,7 @@
       <c r="J70" s="4"/>
     </row>
     <row r="71" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="30" t="s">
         <v>185</v>
       </c>
       <c r="E71" s="29" t="s">
@@ -2646,7 +2646,7 @@
       <c r="J71" s="4"/>
     </row>
     <row r="72" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D72" s="28" t="s">
+      <c r="D72" s="30" t="s">
         <v>187</v>
       </c>
       <c r="E72" s="29" t="s">

--- a/20230306-174629-exportDt.xlsx
+++ b/20230306-174629-exportDt.xlsx
@@ -1676,8 +1676,8 @@
   </sheetPr>
   <dimension ref="A1:J463"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B52" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G58" activeCellId="0" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1882,7 +1882,7 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="30" t="s">
         <v>77</v>
       </c>
       <c r="E10" s="29" t="s">
@@ -1895,7 +1895,7 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="30" t="s">
         <v>79</v>
       </c>
       <c r="E11" s="29" t="s">
@@ -2120,7 +2120,7 @@
       <c r="J28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="95.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="30" t="s">
         <v>112</v>
       </c>
       <c r="E29" s="29" t="s">
@@ -2133,7 +2133,7 @@
       <c r="J29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="30" t="s">
         <v>114</v>
       </c>
       <c r="E30" s="29" t="s">
@@ -2146,7 +2146,7 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="30" t="s">
         <v>116</v>
       </c>
       <c r="E31" s="29" t="s">
@@ -2159,7 +2159,7 @@
       <c r="J31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="30" t="s">
         <v>118</v>
       </c>
       <c r="E32" s="29" t="s">
@@ -2198,7 +2198,7 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="31" t="s">
         <v>124</v>
       </c>
       <c r="E35" s="29" t="s">
@@ -2247,7 +2247,7 @@
       <c r="J38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="30" t="s">
         <v>131</v>
       </c>
       <c r="E39" s="29" t="s">
@@ -2542,7 +2542,7 @@
       <c r="J63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D64" s="28" t="s">
+      <c r="D64" s="30" t="s">
         <v>171</v>
       </c>
       <c r="E64" s="29" t="s">
@@ -2555,7 +2555,7 @@
       <c r="J64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="30" t="s">
         <v>173</v>
       </c>
       <c r="E65" s="29" t="s">
@@ -2594,7 +2594,7 @@
       <c r="J67" s="4"/>
     </row>
     <row r="68" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="31" t="s">
         <v>179</v>
       </c>
       <c r="E68" s="29" t="s">

--- a/20230306-174629-exportDt.xlsx
+++ b/20230306-174629-exportDt.xlsx
@@ -913,7 +913,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1040,6 +1040,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1676,8 +1680,8 @@
   </sheetPr>
   <dimension ref="A1:J463"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B52" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G58" activeCellId="0" sqref="G58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E53" activeCellId="0" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2413,7 +2417,7 @@
       <c r="D52" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="32" t="s">
         <v>156</v>
       </c>
       <c r="F52" s="4"/>
@@ -2423,7 +2427,7 @@
       <c r="J52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E53" s="29" t="s">
+      <c r="E53" s="32" t="s">
         <v>157</v>
       </c>
       <c r="F53" s="4"/>
@@ -7578,94 +7582,94 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="3" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -7673,7 +7677,7 @@
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="38"/>
+      <c r="D12" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7728,54 +7732,54 @@
       <c r="J1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="40" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="n">
+      <c r="A4" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -7793,17 +7797,17 @@
       <c r="G4" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="42" t="n">
+      <c r="H4" s="43" t="n">
         <v>10</v>
       </c>
       <c r="I4" s="24"/>
       <c r="J4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="n">
+      <c r="A5" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="18"/>
       <c r="D5" s="25" t="s">
         <v>199</v>
@@ -7811,23 +7815,23 @@
       <c r="E5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="44" t="s">
         <v>67</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="H5" s="42" t="n">
+      <c r="H5" s="43" t="n">
         <v>2</v>
       </c>
       <c r="I5" s="24"/>
       <c r="J5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="n">
+      <c r="A6" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="18" t="s">
         <v>60</v>
       </c>
@@ -7837,23 +7841,23 @@
       <c r="E6" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="44" t="s">
         <v>63</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="H6" s="42" t="n">
+      <c r="H6" s="43" t="n">
         <v>10</v>
       </c>
       <c r="I6" s="24"/>
       <c r="J6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41" t="n">
+      <c r="A7" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="18"/>
       <c r="D7" s="25" t="s">
         <v>203</v>
@@ -7861,23 +7865,23 @@
       <c r="E7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="45" t="s">
         <v>67</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="H7" s="42" t="n">
+      <c r="H7" s="43" t="n">
         <v>2</v>
       </c>
       <c r="I7" s="24"/>
       <c r="J7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="n">
+      <c r="A8" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="18"/>
       <c r="D8" s="22" t="s">
         <v>205</v>
@@ -7885,11 +7889,11 @@
       <c r="E8" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="44"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="42" t="n">
+      <c r="H8" s="43" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="24"/>
